--- a/Writings/ModelComparison.xlsx
+++ b/Writings/ModelComparison.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23505" windowHeight="9870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Methods" sheetId="1" r:id="rId1"/>
+    <sheet name="MethodsCategorized" sheetId="2" r:id="rId2"/>
+    <sheet name="Sources" sheetId="3" r:id="rId3"/>
+    <sheet name="CombCrossCoding" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="177">
   <si>
     <t>TS</t>
   </si>
@@ -90,9 +92,6 @@
     <t>GP</t>
   </si>
   <si>
-    <t>XGB,MM</t>
-  </si>
-  <si>
     <t>LM</t>
   </si>
   <si>
@@ -313,6 +312,252 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>GBDT,NN</t>
+  </si>
+  <si>
+    <t>GBDT</t>
+  </si>
+  <si>
+    <t>GBDT,NN,TS</t>
+  </si>
+  <si>
+    <t>GBDT,NN,LM</t>
+  </si>
+  <si>
+    <t>NN,TS</t>
+  </si>
+  <si>
+    <t>GBDT,LM</t>
+  </si>
+  <si>
+    <t>GBDT,DTF,TS</t>
+  </si>
+  <si>
+    <t>GBDT,DTF,KNN,LM</t>
+  </si>
+  <si>
+    <t>LM,DTF,SVM,TS</t>
+  </si>
+  <si>
+    <t>GBDT,SVM</t>
+  </si>
+  <si>
+    <t>STAT</t>
+  </si>
+  <si>
+    <t>STAT,LM</t>
+  </si>
+  <si>
+    <t>TS,STAT,DTF,KNN,LM</t>
+  </si>
+  <si>
+    <t>XGBoost, LightGBM, CatBoost, GBM</t>
+  </si>
+  <si>
+    <t>FF,CNN,RNN,Transformer</t>
+  </si>
+  <si>
+    <t>Trad. time series models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other statistical models: GP, Polynomial Regression, Projection Pursuit Regression, </t>
+  </si>
+  <si>
+    <t>DTF</t>
+  </si>
+  <si>
+    <t>Decision Tree Forest</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/walmart-recruiting-store-sales-forecasting/discussion/8023</t>
+  </si>
+  <si>
+    <t>Cross (Department), Ensemble</t>
+  </si>
+  <si>
+    <t>Local, Single</t>
+  </si>
+  <si>
+    <t>Local (?), Ensemble</t>
+  </si>
+  <si>
+    <t>Cross (Department), Single</t>
+  </si>
+  <si>
+    <t>Local, Ensemble</t>
+  </si>
+  <si>
+    <t>Local, Ensemble (Stacking)</t>
+  </si>
+  <si>
+    <t>TS,LM</t>
+  </si>
+  <si>
+    <t>Hybrid (Local TS + Department LM), Ensemble (Stacking)</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/walmart-recruiting-sales-in-stormy-weather/discussion/14452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hybrid (Local STAT, Global LM) </t>
+  </si>
+  <si>
+    <t>Hybrid (Department SVD, Local TS), Ensemble</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/walmart-recruiting-sales-in-stormy-weather/discussion/14358</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/walmart-recruiting-sales-in-stormy-weather/discussion/1435858</t>
+  </si>
+  <si>
+    <t>Cross (?), Ensemble</t>
+  </si>
+  <si>
+    <t>Cross, Ensemble</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/rossmann-store-sales/discussion/18024</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/rossmann-store-sales/discussion/17974</t>
+  </si>
+  <si>
+    <t>Cross (Global), Ensemble</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/rossmann-store-sales/discussion/17896</t>
+  </si>
+  <si>
+    <t>Hybrid (6 global, 1 local), Ensemble</t>
+  </si>
+  <si>
+    <t>Hybrid (Global, Local), Ensemble</t>
+  </si>
+  <si>
+    <t>http://blog.kaggle.com/2016/02/03/rossmann-store-sales-winners-interview-2nd-place-nima-shahbazi/</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/web-traffic-time-series-forecasting/discussion/43795</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/web-traffic-time-series-forecasting/discussion/39370</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/web-traffic-time-series-forecasting/discussion/43727</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/web-traffic-time-series-forecasting/discussion/39395</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/web-traffic-time-series-forecasting/discussion/43603</t>
+  </si>
+  <si>
+    <t>Cross (Global) (?), Ensemble</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/web-traffic-time-series-forecasting/discussion/39367</t>
+  </si>
+  <si>
+    <t>Hybrid (Local TS, Global NN), Ensemble</t>
+  </si>
+  <si>
+    <t>Cross (Global), Single</t>
+  </si>
+  <si>
+    <t>Hybrid (Local TS, Global CNN), Ensemble</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/web-traffic-time-series-forecasting/discussion/43621</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/web-traffic-time-series-forecasting/discussion/39887</t>
+  </si>
+  <si>
+    <t>Hybrid (Global NN, Local TS), Ensemble</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/favorita-grocery-sales-forecasting/discussion/47556</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/favorita-grocery-sales-forecasting/discussion/47582</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/favorita-grocery-sales-forecasting/discussion/47603</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/favorita-grocery-sales-forecasting/discussion/47667</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/favorita-grocery-sales-forecasting/discussion/47560</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/favorita-grocery-sales-forecasting/discussion/47568</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/favorita-grocery-sales-forecasting/discussion/47564</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/favorita-grocery-sales-forecasting/discussion/47529</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/favorita-grocery-sales-forecasting/discussion/47575</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/favorita-grocery-sales-forecasting/discussion/47542</t>
+  </si>
+  <si>
+    <t>Cross (Perishable/Non Perishable), Ensemble</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/favorita-grocery-sales-forecasting/discussion/47534</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/favorita-grocery-sales-forecasting/discussion/47554</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/recruit-restaurant-visitor-forecasting/discussion/49129</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/recruit-restaurant-visitor-forecasting/discussion/49166</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/recruit-restaurant-visitor-forecasting/discussion/49271</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/recruit-restaurant-visitor-forecasting/discussion/49259</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/recruit-restaurant-visitor-forecasting/discussion/49251</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/recruit-restaurant-visitor-forecasting/discussion/49177</t>
+  </si>
+  <si>
+    <t>Hybrid (Global, Local Prophet), Ensemble</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/recruit-restaurant-visitor-forecasting/discussion/49174</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/recruit-restaurant-visitor-forecasting/discussion/49201</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/rsakata/16th-place-solution-simple-ver-private-0-509</t>
+  </si>
+  <si>
+    <t>Hybrid (Global ML, Local TS), Ensemble</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/recruit-restaurant-visitor-forecasting/discussion/49328</t>
+  </si>
+  <si>
+    <t>Hybrid, Ensemble</t>
   </si>
 </sst>
 </file>
@@ -321,9 +566,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +591,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +613,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -455,13 +714,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -476,17 +747,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Procent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,9 +787,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -542,7 +827,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -614,7 +899,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -766,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,48 +1067,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -831,28 +1117,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -860,14 +1146,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>5</v>
@@ -877,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -888,23 +1174,23 @@
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="4"/>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -916,7 +1202,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>5</v>
@@ -926,10 +1212,10 @@
       </c>
       <c r="G6" s="4"/>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -944,19 +1230,19 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -967,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4"/>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -992,17 +1278,17 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1010,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1018,16 +1304,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1035,10 +1321,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
@@ -1046,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1054,22 +1340,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1080,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1104,18 +1390,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1123,20 +1409,20 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="4"/>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1147,15 +1433,15 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1167,14 +1453,14 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="4"/>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1182,22 +1468,24 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1209,14 +1497,14 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="4"/>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1227,17 +1515,13 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1246,11 +1530,11 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
@@ -1270,7 +1554,9 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="J22" t="s">
         <v>18</v>
       </c>
@@ -1403,8 +1689,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>91</v>
+      <c r="A33" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1433,7 +1719,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35">
         <f>2</f>
@@ -1457,7 +1743,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1480,7 +1766,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <f>4</f>
@@ -1504,7 +1790,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38">
         <f>1</f>
@@ -1528,7 +1814,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39">
         <v>13</v>
@@ -1550,330 +1836,330 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>93</v>
+      <c r="A41" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="15">
         <f>B34/25</f>
         <v>0.32</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="15">
         <f t="shared" ref="C42:G42" si="0">C34/25</f>
         <v>0.04</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="15">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="16">
+        <v>86</v>
+      </c>
+      <c r="B43" s="15">
         <f t="shared" ref="B43:G43" si="1">B35/25</f>
         <v>0.08</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="15">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="15">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="15">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="15">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="15">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="16">
+        <v>33</v>
+      </c>
+      <c r="B44" s="15">
         <f t="shared" ref="B44:G44" si="2">B36/25</f>
         <v>0</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="15">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="15">
         <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="15">
         <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="15">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="16">
+        <v>87</v>
+      </c>
+      <c r="B45" s="15">
         <f t="shared" ref="B45:G45" si="3">B37/25</f>
         <v>0.16</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="15">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="15">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="15">
         <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="15">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="16">
+        <v>89</v>
+      </c>
+      <c r="B46" s="15">
         <f t="shared" ref="B46:G46" si="4">B38/25</f>
         <v>0.04</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="15">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="15">
         <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>94</v>
+      <c r="A48" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="15">
         <f>B34/(25-B$39)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="15">
         <f t="shared" ref="C49:G49" si="5">C34/(25-C$39)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="15">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="16">
+        <v>86</v>
+      </c>
+      <c r="B50" s="15">
         <f t="shared" ref="B50:G53" si="6">B35/(25-B$39)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="15">
         <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="15">
         <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="15">
         <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="15">
         <f t="shared" si="6"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="15">
         <f t="shared" si="6"/>
         <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="16">
+        <v>33</v>
+      </c>
+      <c r="B51" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="15">
         <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="15">
         <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="15">
         <f t="shared" si="6"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="15">
         <f t="shared" si="6"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="16">
+        <v>87</v>
+      </c>
+      <c r="B52" s="15">
         <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="15">
         <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="15">
         <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="15">
         <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="15">
         <f t="shared" si="6"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="16">
+        <v>89</v>
+      </c>
+      <c r="B53" s="15">
         <f t="shared" si="6"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="15">
         <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="15">
         <f t="shared" si="6"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="17">
+      <c r="A54" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="16">
         <f>25-B39</f>
         <v>12</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="16">
         <f t="shared" ref="C54:G54" si="7">25-C39</f>
         <v>6</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="16">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="16">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="16">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="16">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
@@ -1889,17 +2175,1432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B26"/>
+      <selection activeCell="D34" sqref="D34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" customWidth="1"/>
+    <col min="4" max="4" width="65.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B17" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="B7" r:id="rId10"/>
+    <hyperlink ref="B2" r:id="rId11"/>
+    <hyperlink ref="C2" r:id="rId12"/>
+    <hyperlink ref="C20" r:id="rId13"/>
+    <hyperlink ref="C7" r:id="rId14"/>
+    <hyperlink ref="C6" r:id="rId15"/>
+    <hyperlink ref="C12" r:id="rId16"/>
+    <hyperlink ref="C4" r:id="rId17"/>
+    <hyperlink ref="D2" r:id="rId18"/>
+    <hyperlink ref="D4" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="D5" r:id="rId21"/>
+    <hyperlink ref="D24" r:id="rId22"/>
+    <hyperlink ref="D3" r:id="rId23"/>
+    <hyperlink ref="E2" r:id="rId24"/>
+    <hyperlink ref="E7" r:id="rId25"/>
+    <hyperlink ref="E9" r:id="rId26"/>
+    <hyperlink ref="E3" r:id="rId27"/>
+    <hyperlink ref="E6" r:id="rId28"/>
+    <hyperlink ref="E15" r:id="rId29"/>
+    <hyperlink ref="E12" r:id="rId30"/>
+    <hyperlink ref="E5" r:id="rId31"/>
+    <hyperlink ref="E4" r:id="rId32"/>
+    <hyperlink ref="E8" r:id="rId33"/>
+    <hyperlink ref="E17" r:id="rId34"/>
+    <hyperlink ref="E20" r:id="rId35"/>
+    <hyperlink ref="F6" r:id="rId36"/>
+    <hyperlink ref="F2" r:id="rId37"/>
+    <hyperlink ref="F17" r:id="rId38"/>
+    <hyperlink ref="F13" r:id="rId39"/>
+    <hyperlink ref="F4" r:id="rId40"/>
+    <hyperlink ref="F3" r:id="rId41"/>
+    <hyperlink ref="F9" r:id="rId42"/>
+    <hyperlink ref="F5" r:id="rId43"/>
+    <hyperlink ref="F7" r:id="rId44"/>
+    <hyperlink ref="F14" r:id="rId45"/>
+    <hyperlink ref="F16" r:id="rId46"/>
+    <hyperlink ref="F18" r:id="rId47"/>
+    <hyperlink ref="G2" r:id="rId48"/>
+    <hyperlink ref="G9" r:id="rId49"/>
+    <hyperlink ref="G24" r:id="rId50"/>
+    <hyperlink ref="G8" r:id="rId51"/>
+    <hyperlink ref="G13" r:id="rId52"/>
+    <hyperlink ref="G12" r:id="rId53"/>
+    <hyperlink ref="G6" r:id="rId54"/>
+    <hyperlink ref="G11" r:id="rId55"/>
+    <hyperlink ref="G17" r:id="rId56"/>
+    <hyperlink ref="G22" r:id="rId57"/>
+    <hyperlink ref="G26" r:id="rId58"/>
+    <hyperlink ref="G21" r:id="rId59"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2126,15 +3827,15 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C85126E7-EED9-49D8-ABFC-2138C7ECC440}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="7fe73e4e-19b4-4f1f-9a2b-d8e50d92a6c3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="8fe2c115-ee5e-4abc-863d-b44282071455"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
